--- a/dataExcel/【R8 左轮手枪 _ 渐变之色 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【R8 左轮手枪 _ 渐变之色 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -431,86 +431,86 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 14:02:46</v>
+        <v>2023-09-19 12:33:35</v>
       </c>
       <c r="B8">
-        <v>65.4</v>
+        <v>63.9</v>
       </c>
       <c r="C8">
-        <v>78</v>
+        <v>81.25</v>
       </c>
       <c r="D8">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G8">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 19:10:09</v>
+        <v>2023-09-19 17:41:00</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63.88</v>
       </c>
       <c r="C9">
-        <v>78</v>
+        <v>81.25</v>
       </c>
       <c r="D9">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G9">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <v>61</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-18 00:22:08</v>
+        <v>2023-09-19 22:50:51</v>
       </c>
       <c r="B10">
-        <v>64.9</v>
+        <v>63.88</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>81.25</v>
       </c>
       <c r="D10">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G10">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-18 05:32:51</v>
+        <v>2023-09-20 04:03:19</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63.78</v>
       </c>
       <c r="C11">
-        <v>76.31</v>
+        <v>76.38</v>
       </c>
       <c r="D11">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -536,27 +536,27 @@
         <v>0.02</v>
       </c>
       <c r="G11">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-18 10:41:46</v>
+        <v>2023-09-20 09:10:56</v>
       </c>
       <c r="B12">
-        <v>64.9</v>
+        <v>63.78</v>
       </c>
       <c r="C12">
-        <v>76.31</v>
+        <v>76.38</v>
       </c>
       <c r="D12">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -565,210 +565,210 @@
         <v>0.02</v>
       </c>
       <c r="G12">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 15:53:57</v>
+        <v>2023-09-20 14:20:55</v>
       </c>
       <c r="B13">
-        <v>64.7</v>
+        <v>63.7</v>
       </c>
       <c r="C13">
-        <v>76.31</v>
+        <v>76.38</v>
       </c>
       <c r="D13">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G13">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H13">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 21:00:32</v>
+        <v>2023-09-20 19:32:26</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>62.8</v>
       </c>
       <c r="C14">
-        <v>76.31</v>
+        <v>76.38</v>
       </c>
       <c r="D14">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F14">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="G14">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="H14">
         <v>61</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-19 02:10:31</v>
+        <v>2023-09-21 00:42:25</v>
       </c>
       <c r="B15">
-        <v>62.5</v>
+        <v>62.9</v>
       </c>
       <c r="C15">
-        <v>81.25</v>
+        <v>76.38</v>
       </c>
       <c r="D15">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H15">
         <v>61</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-19 07:21:48</v>
+        <v>2023-09-21 05:52:18</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>62.9</v>
       </c>
       <c r="C16">
-        <v>81.25</v>
+        <v>81.9</v>
       </c>
       <c r="D16">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G16">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>61</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-19 12:33:35</v>
+        <v>2023-09-21 11:03:46</v>
       </c>
       <c r="B17">
-        <v>63.9</v>
+        <v>64.66</v>
       </c>
       <c r="C17">
-        <v>81.25</v>
+        <v>81.9</v>
       </c>
       <c r="D17">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G17">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H17">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 17:41:00</v>
+        <v>2023-09-21 16:14:24</v>
       </c>
       <c r="B18">
-        <v>63.88</v>
+        <v>64</v>
       </c>
       <c r="C18">
-        <v>81.25</v>
+        <v>81.9</v>
       </c>
       <c r="D18">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G18">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 22:50:51</v>
+        <v>2023-09-21 21:23:17</v>
       </c>
       <c r="B19">
-        <v>63.88</v>
+        <v>64</v>
       </c>
       <c r="C19">
-        <v>81.25</v>
+        <v>81.9</v>
       </c>
       <c r="D19">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G19">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>61</v>
@@ -779,16 +779,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-20 04:03:19</v>
+        <v>2023-09-22 02:35:36</v>
       </c>
       <c r="B20">
-        <v>63.78</v>
+        <v>64.89</v>
       </c>
       <c r="C20">
-        <v>76.38</v>
+        <v>71.5</v>
       </c>
       <c r="D20">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="E20">
         <v>0.03</v>
@@ -797,7 +797,7 @@
         <v>0.02</v>
       </c>
       <c r="G20">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>61</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-20 09:10:56</v>
+        <v>2023-09-22 07:43:18</v>
       </c>
       <c r="B21">
-        <v>63.78</v>
+        <v>64.89</v>
       </c>
       <c r="C21">
-        <v>76.38</v>
+        <v>71.5</v>
       </c>
       <c r="D21">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E21">
         <v>0.03</v>
@@ -826,7 +826,7 @@
         <v>0.02</v>
       </c>
       <c r="G21">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>61</v>
@@ -837,16 +837,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-20 14:20:55</v>
+        <v>2023-09-22 12:53:18</v>
       </c>
       <c r="B22">
-        <v>63.7</v>
+        <v>64.78</v>
       </c>
       <c r="C22">
-        <v>76.38</v>
+        <v>71.5</v>
       </c>
       <c r="D22">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -855,239 +855,239 @@
         <v>0.02</v>
       </c>
       <c r="G22">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="H22">
         <v>61</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-20 19:32:26</v>
+        <v>2023-09-22 18:04:06</v>
       </c>
       <c r="B23">
-        <v>62.8</v>
+        <v>64.89</v>
       </c>
       <c r="C23">
-        <v>76.38</v>
+        <v>71.5</v>
       </c>
       <c r="D23">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F23">
         <v>0.01</v>
       </c>
       <c r="G23">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-21 00:42:25</v>
+        <v>2023-09-22 23:15:07</v>
       </c>
       <c r="B24">
-        <v>62.9</v>
+        <v>64.44</v>
       </c>
       <c r="C24">
-        <v>76.38</v>
+        <v>71.5</v>
       </c>
       <c r="D24">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="E24">
         <v>0.03</v>
       </c>
       <c r="F24">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G24">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H24">
         <v>61</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-21 05:52:18</v>
+        <v>2023-09-23 04:22:49</v>
       </c>
       <c r="B25">
-        <v>62.9</v>
+        <v>64.9</v>
       </c>
       <c r="C25">
-        <v>81.9</v>
+        <v>77.22</v>
       </c>
       <c r="D25">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="E25">
         <v>0.03</v>
       </c>
       <c r="F25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G25">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="H25">
         <v>61</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-21 11:03:46</v>
+        <v>2023-09-23 09:34:01</v>
       </c>
       <c r="B26">
-        <v>64.66</v>
+        <v>64.7</v>
       </c>
       <c r="C26">
-        <v>81.9</v>
+        <v>77.22</v>
       </c>
       <c r="D26">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E26">
         <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G26">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-21 16:14:24</v>
+        <v>2023-09-23 14:43:08</v>
       </c>
       <c r="B27">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="C27">
-        <v>81.9</v>
+        <v>77.22</v>
       </c>
       <c r="D27">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E27">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G27">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 21:23:17</v>
+        <v>2023-09-23 19:53:21</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="C28">
-        <v>81.9</v>
+        <v>77.22</v>
       </c>
       <c r="D28">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H28">
         <v>61</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-22 02:35:36</v>
+        <v>2023-09-24 01:03:37</v>
       </c>
       <c r="B29">
-        <v>64.89</v>
+        <v>64.5</v>
       </c>
       <c r="C29">
-        <v>71.5</v>
+        <v>77.22</v>
       </c>
       <c r="D29">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F29">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G29">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H29">
         <v>61</v>
       </c>
       <c r="I29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-22 07:43:18</v>
+        <v>2023-09-24 06:13:59</v>
       </c>
       <c r="B30">
-        <v>64.89</v>
+        <v>64.5</v>
       </c>
       <c r="C30">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D30">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G30">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <v>61</v>
@@ -1098,335 +1098,335 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-22 12:53:18</v>
+        <v>2023-09-24 11:25:46</v>
       </c>
       <c r="B31">
-        <v>64.78</v>
+        <v>64.4</v>
       </c>
       <c r="C31">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D31">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G31">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H31">
         <v>61</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 18:04:06</v>
+        <v>2023-09-24 16:34:50</v>
       </c>
       <c r="B32">
-        <v>64.89</v>
+        <v>64</v>
       </c>
       <c r="C32">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D32">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
         <v>0.01</v>
       </c>
       <c r="G32">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H32">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 23:15:07</v>
+        <v>2023-09-24 21:44:52</v>
       </c>
       <c r="B33">
-        <v>64.44</v>
+        <v>62.7</v>
       </c>
       <c r="C33">
-        <v>71.5</v>
+        <v>75.33</v>
       </c>
       <c r="D33">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G33">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H33">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-23 04:22:49</v>
+        <v>2023-09-25 02:53:31</v>
       </c>
       <c r="B34">
-        <v>64.9</v>
+        <v>62.8</v>
       </c>
       <c r="C34">
-        <v>77.22</v>
+        <v>76.7</v>
       </c>
       <c r="D34">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G34">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-23 09:34:01</v>
+        <v>2023-09-25 08:04:26</v>
       </c>
       <c r="B35">
-        <v>64.7</v>
+        <v>62.8</v>
       </c>
       <c r="C35">
-        <v>77.22</v>
+        <v>76.7</v>
       </c>
       <c r="D35">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="E35">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F35">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G35">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-23 14:43:08</v>
+        <v>2023-09-25 13:15:28</v>
       </c>
       <c r="B36">
-        <v>64.5</v>
+        <v>62.8</v>
       </c>
       <c r="C36">
-        <v>77.22</v>
+        <v>76.7</v>
       </c>
       <c r="D36">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E36">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
         <v>0.03</v>
       </c>
       <c r="G36">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-23 19:53:21</v>
+        <v>2023-09-25 18:24:25</v>
       </c>
       <c r="B37">
-        <v>64.5</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>77.22</v>
+        <v>76.7</v>
       </c>
       <c r="D37">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E37">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G37">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I37">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-24 01:03:37</v>
+        <v>2023-09-25 23:34:20</v>
       </c>
       <c r="B38">
-        <v>64.5</v>
+        <v>62.7</v>
       </c>
       <c r="C38">
-        <v>77.22</v>
+        <v>76.7</v>
       </c>
       <c r="D38">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F38">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G38">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H38">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-24 06:13:59</v>
+        <v>2023-09-26 04:45:11</v>
       </c>
       <c r="B39">
-        <v>64.5</v>
+        <v>62.6</v>
       </c>
       <c r="C39">
-        <v>75.33</v>
+        <v>72.02</v>
       </c>
       <c r="D39">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E39">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G39">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H39">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-24 11:25:46</v>
+        <v>2023-09-26 09:54:48</v>
       </c>
       <c r="B40">
-        <v>64.4</v>
+        <v>63.99</v>
       </c>
       <c r="C40">
-        <v>75.33</v>
+        <v>72.02</v>
       </c>
       <c r="D40">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E40">
+        <v>0.03</v>
+      </c>
+      <c r="F40">
         <v>0.02</v>
       </c>
-      <c r="F40">
-        <v>0.01</v>
-      </c>
       <c r="G40">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H40">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I40">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-24 16:34:50</v>
+        <v>2023-09-26 15:05:46</v>
       </c>
       <c r="B41">
-        <v>64</v>
+        <v>63.5</v>
       </c>
       <c r="C41">
-        <v>75.33</v>
+        <v>72.02</v>
       </c>
       <c r="D41">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E41">
+        <v>0.03</v>
+      </c>
+      <c r="F41">
         <v>0.02</v>
       </c>
-      <c r="F41">
-        <v>0.01</v>
-      </c>
       <c r="G41">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H41">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-24 21:44:52</v>
+        <v>2023-09-26 20:16:31</v>
       </c>
       <c r="B42">
-        <v>62.7</v>
+        <v>62</v>
       </c>
       <c r="C42">
-        <v>75.33</v>
+        <v>72.02</v>
       </c>
       <c r="D42">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E42">
         <v>0.04</v>
@@ -1435,27 +1435,27 @@
         <v>0.03</v>
       </c>
       <c r="G42">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H42">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I42">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-25 02:53:31</v>
+        <v>2023-09-27 01:24:50</v>
       </c>
       <c r="B43">
-        <v>62.8</v>
+        <v>63.99</v>
       </c>
       <c r="C43">
-        <v>76.7</v>
+        <v>72.02</v>
       </c>
       <c r="D43">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E43">
         <v>0.04</v>
@@ -1464,27 +1464,27 @@
         <v>0.03</v>
       </c>
       <c r="G43">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-25 08:04:26</v>
+        <v>2023-09-27 06:35:43</v>
       </c>
       <c r="B44">
-        <v>62.8</v>
+        <v>63.88</v>
       </c>
       <c r="C44">
-        <v>76.7</v>
+        <v>77.48</v>
       </c>
       <c r="D44">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E44">
         <v>0.04</v>
@@ -1493,520 +1493,520 @@
         <v>0.03</v>
       </c>
       <c r="G44">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-25 13:15:28</v>
+        <v>2023-09-27 11:45:25</v>
       </c>
       <c r="B45">
-        <v>62.8</v>
+        <v>63.77</v>
       </c>
       <c r="C45">
-        <v>76.7</v>
+        <v>77.48</v>
       </c>
       <c r="D45">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
         <v>0.03</v>
       </c>
       <c r="G45">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H45">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-25 18:24:25</v>
+        <v>2023-09-27 16:54:40</v>
       </c>
       <c r="B46">
+        <v>63.89</v>
+      </c>
+      <c r="C46">
+        <v>77.48</v>
+      </c>
+      <c r="D46">
+        <v>341</v>
+      </c>
+      <c r="E46">
+        <v>0.04</v>
+      </c>
+      <c r="F46">
+        <v>0.03</v>
+      </c>
+      <c r="G46">
+        <v>78</v>
+      </c>
+      <c r="H46">
         <v>62</v>
       </c>
-      <c r="C46">
-        <v>76.7</v>
-      </c>
-      <c r="D46">
-        <v>338</v>
-      </c>
-      <c r="E46">
-        <v>0.02</v>
-      </c>
-      <c r="F46">
-        <v>0.02</v>
-      </c>
-      <c r="G46">
-        <v>94</v>
-      </c>
-      <c r="H46">
-        <v>59</v>
-      </c>
       <c r="I46">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-25 23:34:20</v>
+        <v>2023-09-27 22:04:46</v>
       </c>
       <c r="B47">
-        <v>62.7</v>
+        <v>64</v>
       </c>
       <c r="C47">
-        <v>76.7</v>
+        <v>77.48</v>
       </c>
       <c r="D47">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G47">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H47">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I47">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-26 04:45:11</v>
+        <v>2023-09-28 03:14:45</v>
       </c>
       <c r="B48">
-        <v>62.6</v>
+        <v>64.3</v>
       </c>
       <c r="C48">
-        <v>72.02</v>
+        <v>76.56</v>
       </c>
       <c r="D48">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F48">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G48">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I48">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-26 09:54:48</v>
+        <v>2023-09-28 08:24:43</v>
       </c>
       <c r="B49">
-        <v>63.99</v>
+        <v>64.3</v>
       </c>
       <c r="C49">
-        <v>72.02</v>
+        <v>76.56</v>
       </c>
       <c r="D49">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G49">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H49">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-26 15:05:46</v>
+        <v>2023-09-28 13:34:42</v>
       </c>
       <c r="B50">
-        <v>63.5</v>
+        <v>63.9</v>
       </c>
       <c r="C50">
-        <v>72.02</v>
+        <v>76.56</v>
       </c>
       <c r="D50">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F50">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G50">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H50">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-26 20:16:31</v>
+        <v>2023-09-28 18:44:41</v>
       </c>
       <c r="B51">
-        <v>62</v>
+        <v>61.4</v>
       </c>
       <c r="C51">
-        <v>72.02</v>
+        <v>76.56</v>
       </c>
       <c r="D51">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E51">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H51">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-27 01:24:50</v>
+        <v>2023-09-28 23:54:56</v>
       </c>
       <c r="B52">
-        <v>63.99</v>
+        <v>61.7</v>
       </c>
       <c r="C52">
-        <v>72.02</v>
+        <v>76.56</v>
       </c>
       <c r="D52">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="E52">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G52">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H52">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-27 06:35:43</v>
+        <v>2023-09-29 05:05:45</v>
       </c>
       <c r="B53">
-        <v>63.88</v>
+        <v>61</v>
       </c>
       <c r="C53">
-        <v>77.48</v>
+        <v>77.42</v>
       </c>
       <c r="D53">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="E53">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F53">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G53">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-27 11:45:25</v>
+        <v>2023-09-29 10:16:02</v>
       </c>
       <c r="B54">
-        <v>63.77</v>
+        <v>60.7</v>
       </c>
       <c r="C54">
-        <v>77.48</v>
+        <v>77.42</v>
       </c>
       <c r="D54">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="E54">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F54">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G54">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H54">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I54">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-27 16:54:40</v>
+        <v>2023-09-29 15:25:17</v>
       </c>
       <c r="B55">
-        <v>63.89</v>
+        <v>60.8</v>
       </c>
       <c r="C55">
-        <v>77.48</v>
+        <v>77.42</v>
       </c>
       <c r="D55">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F55">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G55">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H55">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I55">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-27 22:04:46</v>
+        <v>2023-09-29 20:35:08</v>
       </c>
       <c r="B56">
-        <v>64</v>
+        <v>60.9</v>
       </c>
       <c r="C56">
-        <v>77.48</v>
+        <v>77.42</v>
       </c>
       <c r="D56">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E56">
         <v>0.05</v>
       </c>
       <c r="F56">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G56">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H56">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-28 03:14:45</v>
+        <v>2023-09-30 01:40:21</v>
       </c>
       <c r="B57">
-        <v>64.3</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>76.56</v>
+        <v>77.42</v>
       </c>
       <c r="D57">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E57">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
         <v>0.04</v>
       </c>
       <c r="G57">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H57">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-28 08:24:43</v>
+        <v>2023-09-30 06:50:48</v>
       </c>
       <c r="B58">
-        <v>64.3</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>76.56</v>
+        <v>78</v>
       </c>
       <c r="D58">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E58">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F58">
         <v>0.04</v>
       </c>
       <c r="G58">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H58">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-28 13:34:42</v>
+        <v>2023-09-30 12:00:57</v>
       </c>
       <c r="B59">
-        <v>63.9</v>
+        <v>59.9</v>
       </c>
       <c r="C59">
-        <v>76.56</v>
+        <v>78</v>
       </c>
       <c r="D59">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E59">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F59">
         <v>0.04</v>
       </c>
       <c r="G59">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H59">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I59">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-28 18:44:41</v>
+        <v>2023-09-30 17:10:35</v>
       </c>
       <c r="B60">
-        <v>61.4</v>
+        <v>59.4</v>
       </c>
       <c r="C60">
-        <v>76.56</v>
+        <v>78</v>
       </c>
       <c r="D60">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E60">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F60">
         <v>0.04</v>
       </c>
       <c r="G60">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H60">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-28 23:54:56</v>
+        <v>2023-09-30 22:21:10</v>
       </c>
       <c r="B61">
-        <v>61.7</v>
+        <v>59.7</v>
       </c>
       <c r="C61">
-        <v>76.56</v>
+        <v>78</v>
       </c>
       <c r="D61">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E61">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
         <v>0.04</v>
       </c>
       <c r="G61">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H61">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I61">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-29 05:05:45</v>
+        <v>2023-10-01 03:30:41</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>59.8</v>
       </c>
       <c r="C62">
-        <v>77.42</v>
+        <v>73.77</v>
       </c>
       <c r="D62">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E62">
         <v>0.05</v>
@@ -2015,27 +2015,27 @@
         <v>0.04</v>
       </c>
       <c r="G62">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H62">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I62">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-29 10:16:02</v>
+        <v>2023-10-01 08:40:41</v>
       </c>
       <c r="B63">
-        <v>60.7</v>
+        <v>59.8</v>
       </c>
       <c r="C63">
-        <v>77.42</v>
+        <v>73.77</v>
       </c>
       <c r="D63">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E63">
         <v>0.05</v>
@@ -2044,10 +2044,10 @@
         <v>0.04</v>
       </c>
       <c r="G63">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I63">
         <v>8</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-29 15:25:17</v>
+        <v>2023-10-01 13:50:40</v>
       </c>
       <c r="B64">
-        <v>60.8</v>
+        <v>59.8</v>
       </c>
       <c r="C64">
-        <v>77.42</v>
+        <v>73.77</v>
       </c>
       <c r="D64">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E64">
         <v>0.05</v>
@@ -2073,227 +2073,227 @@
         <v>0.04</v>
       </c>
       <c r="G64">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H64">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I64">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-29 20:35:08</v>
+        <v>2023-10-01 19:00:38</v>
       </c>
       <c r="B65">
-        <v>60.9</v>
+        <v>59.8</v>
       </c>
       <c r="C65">
-        <v>77.42</v>
+        <v>73.77</v>
       </c>
       <c r="D65">
         <v>339</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G65">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H65">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-30 01:40:21</v>
+        <v>2023-10-02 00:10:59</v>
       </c>
       <c r="B66">
         <v>60</v>
       </c>
       <c r="C66">
-        <v>77.42</v>
+        <v>73.77</v>
       </c>
       <c r="D66">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E66">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
         <v>0.04</v>
       </c>
       <c r="G66">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H66">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I66">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-30 06:50:48</v>
+        <v>2023-10-02 05:20:44</v>
       </c>
       <c r="B67">
         <v>60</v>
       </c>
       <c r="C67">
-        <v>78</v>
+        <v>78.65</v>
       </c>
       <c r="D67">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E67">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
         <v>0.04</v>
       </c>
       <c r="G67">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H67">
         <v>55</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-30 12:00:57</v>
+        <v>2023-10-02 10:31:07</v>
       </c>
       <c r="B68">
-        <v>59.9</v>
+        <v>60</v>
       </c>
       <c r="C68">
-        <v>78</v>
+        <v>78.65</v>
       </c>
       <c r="D68">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E68">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F68">
         <v>0.04</v>
       </c>
       <c r="G68">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H68">
         <v>55</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-30 17:10:35</v>
+        <v>2023-10-02 15:40:50</v>
       </c>
       <c r="B69">
-        <v>59.4</v>
+        <v>62.9</v>
       </c>
       <c r="C69">
-        <v>78</v>
+        <v>78.65</v>
       </c>
       <c r="D69">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="E69">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F69">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G69">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H69">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-30 22:21:10</v>
+        <v>2023-10-02 20:51:31</v>
       </c>
       <c r="B70">
-        <v>59.7</v>
+        <v>62.3</v>
       </c>
       <c r="C70">
-        <v>78</v>
+        <v>78.65</v>
       </c>
       <c r="D70">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E70">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G70">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H70">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I70">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-10-01 03:30:41</v>
+        <v>2023-10-03 02:01:09</v>
       </c>
       <c r="B71">
-        <v>59.8</v>
+        <v>62</v>
       </c>
       <c r="C71">
-        <v>73.77</v>
+        <v>78.65</v>
       </c>
       <c r="D71">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="E71">
         <v>0.05</v>
       </c>
       <c r="F71">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G71">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H71">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-10-01 08:40:41</v>
+        <v>2023-10-03 07:11:08</v>
       </c>
       <c r="B72">
-        <v>59.8</v>
+        <v>62</v>
       </c>
       <c r="C72">
-        <v>73.77</v>
+        <v>75.08</v>
       </c>
       <c r="D72">
         <v>335</v>
@@ -2302,129 +2302,129 @@
         <v>0.05</v>
       </c>
       <c r="F72">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G72">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H72">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-10-01 13:50:40</v>
+        <v>2023-10-03 12:21:26</v>
       </c>
       <c r="B73">
-        <v>59.8</v>
+        <v>61.8</v>
       </c>
       <c r="C73">
-        <v>73.77</v>
+        <v>75.08</v>
       </c>
       <c r="D73">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E73">
         <v>0.05</v>
       </c>
       <c r="F73">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G73">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H73">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-10-01 19:00:38</v>
+        <v>2023-10-03 17:31:26</v>
       </c>
       <c r="B74">
-        <v>59.8</v>
+        <v>61.9</v>
       </c>
       <c r="C74">
-        <v>73.77</v>
+        <v>75.08</v>
       </c>
       <c r="D74">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F74">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G74">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H74">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-02 00:10:59</v>
+        <v>2023-10-03 22:41:25</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>63.9</v>
       </c>
       <c r="C75">
-        <v>73.77</v>
+        <v>75.08</v>
       </c>
       <c r="D75">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E75">
         <v>0.05</v>
       </c>
       <c r="F75">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G75">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H75">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I75">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-02 05:20:44</v>
+        <v>2023-10-04 03:51:24</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>63.9</v>
       </c>
       <c r="C76">
-        <v>78.65</v>
+        <v>79.37</v>
       </c>
       <c r="D76">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E76">
         <v>0.05</v>
       </c>
       <c r="F76">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G76">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H76">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I76">
         <v>11</v>
@@ -2432,45 +2432,45 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-02 10:31:07</v>
+        <v>2023-10-04 09:01:23</v>
       </c>
       <c r="B77">
-        <v>60</v>
+        <v>63.9</v>
       </c>
       <c r="C77">
-        <v>78.65</v>
+        <v>79.37</v>
       </c>
       <c r="D77">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E77">
         <v>0.05</v>
       </c>
       <c r="F77">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G77">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H77">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I77">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-02 15:40:50</v>
+        <v>2023-10-04 14:13:06</v>
       </c>
       <c r="B78">
-        <v>62.9</v>
+        <v>61</v>
       </c>
       <c r="C78">
-        <v>78.65</v>
+        <v>79.37</v>
       </c>
       <c r="D78">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="E78">
         <v>0.05</v>
@@ -2479,30 +2479,30 @@
         <v>0.03</v>
       </c>
       <c r="G78">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H78">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I78">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-02 20:51:31</v>
+        <v>2023-10-04 19:21:28</v>
       </c>
       <c r="B79">
-        <v>62.3</v>
+        <v>59</v>
       </c>
       <c r="C79">
-        <v>78.65</v>
+        <v>79.37</v>
       </c>
       <c r="D79">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F79">
         <v>0.03</v>
@@ -2511,36 +2511,36 @@
         <v>62</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I79">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-03 02:01:09</v>
+        <v>2023-10-05 00:31:28</v>
       </c>
       <c r="B80">
-        <v>62</v>
+        <v>60.99</v>
       </c>
       <c r="C80">
-        <v>78.65</v>
+        <v>79.37</v>
       </c>
       <c r="D80">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E80">
         <v>0.05</v>
       </c>
       <c r="F80">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G80">
         <v>62</v>
       </c>
       <c r="H80">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I80">
         <v>11</v>
@@ -2548,22 +2548,22 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-03 07:11:08</v>
+        <v>2023-10-05 05:41:27</v>
       </c>
       <c r="B81">
-        <v>62</v>
+        <v>60.99</v>
       </c>
       <c r="C81">
-        <v>75.08</v>
+        <v>87.17</v>
       </c>
       <c r="D81">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E81">
         <v>0.05</v>
       </c>
       <c r="F81">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G81">
         <v>62</v>
@@ -2577,45 +2577,45 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-03 12:21:26</v>
+        <v>2023-10-05 10:51:26</v>
       </c>
       <c r="B82">
-        <v>61.8</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>75.08</v>
+        <v>87.17</v>
       </c>
       <c r="D82">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E82">
         <v>0.05</v>
       </c>
       <c r="F82">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G82">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H82">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I82">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-03 17:31:26</v>
+        <v>2023-10-05 16:01:25</v>
       </c>
       <c r="B83">
-        <v>61.9</v>
+        <v>60.8</v>
       </c>
       <c r="C83">
-        <v>75.08</v>
+        <v>87.17</v>
       </c>
       <c r="D83">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E83">
         <v>0.04</v>
@@ -2624,213 +2624,213 @@
         <v>0.03</v>
       </c>
       <c r="G83">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H83">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-03 22:41:25</v>
+        <v>2023-10-05 21:11:24</v>
       </c>
       <c r="B84">
-        <v>63.9</v>
+        <v>60.8</v>
       </c>
       <c r="C84">
-        <v>75.08</v>
+        <v>87.17</v>
       </c>
       <c r="D84">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
         <v>0.03</v>
       </c>
       <c r="G84">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H84">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-04 03:51:24</v>
+        <v>2023-10-06 02:22:05</v>
       </c>
       <c r="B85">
-        <v>63.9</v>
+        <v>60</v>
       </c>
       <c r="C85">
-        <v>79.37</v>
+        <v>82.48</v>
       </c>
       <c r="D85">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E85">
         <v>0.05</v>
       </c>
       <c r="F85">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G85">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H85">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-04 09:01:23</v>
+        <v>2023-10-06 07:31:27</v>
       </c>
       <c r="B86">
-        <v>63.9</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>79.37</v>
+        <v>82.48</v>
       </c>
       <c r="D86">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E86">
         <v>0.05</v>
       </c>
       <c r="F86">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G86">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H86">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-04 14:13:06</v>
+        <v>2023-10-06 12:41:26</v>
       </c>
       <c r="B87">
-        <v>61</v>
+        <v>60.9</v>
       </c>
       <c r="C87">
-        <v>79.37</v>
+        <v>82.48</v>
       </c>
       <c r="D87">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E87">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F87">
         <v>0.03</v>
       </c>
       <c r="G87">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H87">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-04 19:21:28</v>
+        <v>2023-10-06 17:51:26</v>
       </c>
       <c r="B88">
-        <v>59</v>
+        <v>60.7</v>
       </c>
       <c r="C88">
-        <v>79.37</v>
+        <v>82.48</v>
       </c>
       <c r="D88">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E88">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F88">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G88">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H88">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I88">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-05 00:31:28</v>
+        <v>2023-10-06 23:01:25</v>
       </c>
       <c r="B89">
-        <v>60.99</v>
+        <v>62.8</v>
       </c>
       <c r="C89">
-        <v>79.37</v>
+        <v>82.48</v>
       </c>
       <c r="D89">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="E89">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F89">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G89">
         <v>62</v>
       </c>
       <c r="H89">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I89">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-05 05:41:27</v>
+        <v>2023-10-07 04:11:24</v>
       </c>
       <c r="B90">
-        <v>60.99</v>
+        <v>63.78</v>
       </c>
       <c r="C90">
-        <v>87.17</v>
+        <v>83.2</v>
       </c>
       <c r="D90">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="E90">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G90">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H90">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I90">
         <v>12</v>
@@ -2838,45 +2838,45 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-05 10:51:26</v>
+        <v>2023-10-07 09:21:23</v>
       </c>
       <c r="B91">
-        <v>61</v>
+        <v>63.5</v>
       </c>
       <c r="C91">
-        <v>87.17</v>
+        <v>83.2</v>
       </c>
       <c r="D91">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G91">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H91">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-05 16:01:25</v>
+        <v>2023-10-07 14:32:00</v>
       </c>
       <c r="B92">
-        <v>60.8</v>
+        <v>63.4</v>
       </c>
       <c r="C92">
-        <v>87.17</v>
+        <v>83.2</v>
       </c>
       <c r="D92">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E92">
         <v>0.04</v>
@@ -2885,27 +2885,27 @@
         <v>0.03</v>
       </c>
       <c r="G92">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H92">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I92">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-05 21:11:24</v>
+        <v>2023-10-07 19:41:38</v>
       </c>
       <c r="B93">
         <v>60.8</v>
       </c>
       <c r="C93">
-        <v>87.17</v>
+        <v>83.2</v>
       </c>
       <c r="D93">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="E93">
         <v>0.04</v>
@@ -2914,230 +2914,230 @@
         <v>0.03</v>
       </c>
       <c r="G93">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H93">
         <v>56</v>
       </c>
       <c r="I93">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-06 02:22:05</v>
+        <v>2023-10-08 00:51:35</v>
       </c>
       <c r="B94">
-        <v>60</v>
+        <v>60.6</v>
       </c>
       <c r="C94">
-        <v>82.48</v>
+        <v>83.2</v>
       </c>
       <c r="D94">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E94">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F94">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G94">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H94">
         <v>56</v>
       </c>
       <c r="I94">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-06 07:31:27</v>
+        <v>2023-10-08 06:02:22</v>
       </c>
       <c r="B95">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="C95">
-        <v>82.48</v>
+        <v>83.13</v>
       </c>
       <c r="D95">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E95">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G95">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H95">
         <v>56</v>
       </c>
       <c r="I95">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-06 12:41:26</v>
+        <v>2023-10-08 11:11:47</v>
       </c>
       <c r="B96">
-        <v>60.9</v>
+        <v>63.5</v>
       </c>
       <c r="C96">
-        <v>82.48</v>
+        <v>83.13</v>
       </c>
       <c r="D96">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="E96">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F96">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G96">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H96">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-06 17:51:26</v>
+        <v>2023-10-08 16:21:46</v>
       </c>
       <c r="B97">
-        <v>60.7</v>
+        <v>60</v>
       </c>
       <c r="C97">
-        <v>82.48</v>
+        <v>83.13</v>
       </c>
       <c r="D97">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="E97">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F97">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G97">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H97">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-06 23:01:25</v>
+        <v>2023-10-08 21:31:45</v>
       </c>
       <c r="B98">
-        <v>62.8</v>
+        <v>60.9</v>
       </c>
       <c r="C98">
-        <v>82.48</v>
+        <v>83.13</v>
       </c>
       <c r="D98">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="E98">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G98">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H98">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-07 04:11:24</v>
+        <v>2023-10-09 02:42:13</v>
       </c>
       <c r="B99">
-        <v>63.78</v>
+        <v>63</v>
       </c>
       <c r="C99">
-        <v>83.2</v>
+        <v>86.84</v>
       </c>
       <c r="D99">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="E99">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F99">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G99">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="H99">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I99">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-07 09:21:23</v>
+        <v>2023-10-09 07:53:34</v>
       </c>
       <c r="B100">
-        <v>63.5</v>
+        <v>63</v>
       </c>
       <c r="C100">
-        <v>83.2</v>
+        <v>86.84</v>
       </c>
       <c r="D100">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="E100">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F100">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G100">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H100">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I100">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-07 14:32:00</v>
+        <v>2023-10-09 13:04:07</v>
       </c>
       <c r="B101">
-        <v>63.4</v>
+        <v>58.9</v>
       </c>
       <c r="C101">
-        <v>83.2</v>
+        <v>86.84</v>
       </c>
       <c r="D101">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E101">
         <v>0.04</v>
@@ -3146,184 +3146,184 @@
         <v>0.03</v>
       </c>
       <c r="G101">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H101">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I101">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-07 19:41:38</v>
+        <v>2023-10-09 18:12:58</v>
       </c>
       <c r="B102">
-        <v>60.8</v>
+        <v>62</v>
       </c>
       <c r="C102">
-        <v>83.2</v>
+        <v>86.84</v>
       </c>
       <c r="D102">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="E102">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F102">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G102">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H102">
         <v>56</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-08 00:51:35</v>
+        <v>2023-10-09 23:22:12</v>
       </c>
       <c r="B103">
-        <v>60.6</v>
+        <v>59.8</v>
       </c>
       <c r="C103">
-        <v>83.2</v>
+        <v>86.84</v>
       </c>
       <c r="D103">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E103">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F103">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G103">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H103">
         <v>56</v>
       </c>
       <c r="I103">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-08 06:02:22</v>
+        <v>2023-10-10 04:32:34</v>
       </c>
       <c r="B104">
-        <v>60.5</v>
+        <v>59.9</v>
       </c>
       <c r="C104">
-        <v>83.13</v>
+        <v>84.05</v>
       </c>
       <c r="D104">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E104">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F104">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G104">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H104">
         <v>56</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-08 11:11:47</v>
+        <v>2023-10-10 09:42:51</v>
       </c>
       <c r="B105">
-        <v>63.5</v>
+        <v>59.8</v>
       </c>
       <c r="C105">
-        <v>83.13</v>
+        <v>84.05</v>
       </c>
       <c r="D105">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E105">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F105">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G105">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H105">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I105">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-08 16:21:46</v>
+        <v>2023-10-10 14:53:26</v>
       </c>
       <c r="B106">
-        <v>60</v>
+        <v>59.8</v>
       </c>
       <c r="C106">
-        <v>83.13</v>
+        <v>84.05</v>
       </c>
       <c r="D106">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E106">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F106">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G106">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H106">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I106">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-08 21:31:45</v>
+        <v>2023-10-10 20:02:32</v>
       </c>
       <c r="B107">
-        <v>60.9</v>
+        <v>59</v>
       </c>
       <c r="C107">
-        <v>83.13</v>
+        <v>84.05</v>
       </c>
       <c r="D107">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E107">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F107">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G107">
         <v>53</v>
       </c>
       <c r="H107">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I107">
         <v>13</v>
@@ -3331,57 +3331,57 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-09 02:42:13</v>
+        <v>2023-10-11 01:08:44</v>
       </c>
       <c r="B108">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C108">
-        <v>86.84</v>
+        <v>84.05</v>
       </c>
       <c r="D108">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="E108">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F108">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G108">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H108">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I108">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-09 07:53:34</v>
+        <v>2023-10-11 06:17:57</v>
       </c>
       <c r="B109">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C109">
-        <v>86.84</v>
+        <v>80.73</v>
       </c>
       <c r="D109">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E109">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F109">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G109">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H109">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I109">
         <v>13</v>
@@ -3389,289 +3389,289 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-09 13:04:07</v>
+        <v>2023-10-11 11:30:29</v>
       </c>
       <c r="B110">
-        <v>58.9</v>
+        <v>60</v>
       </c>
       <c r="C110">
-        <v>86.84</v>
+        <v>80.73</v>
       </c>
       <c r="D110">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E110">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F110">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G110">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H110">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I110">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-09 18:12:58</v>
+        <v>2023-10-11 16:38:03</v>
       </c>
       <c r="B111">
-        <v>62</v>
+        <v>60.5</v>
       </c>
       <c r="C111">
-        <v>86.84</v>
+        <v>80.73</v>
       </c>
       <c r="D111">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E111">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F111">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G111">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H111">
         <v>56</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-09 23:22:12</v>
+        <v>2023-10-11 21:48:02</v>
       </c>
       <c r="B112">
-        <v>59.8</v>
+        <v>60.5</v>
       </c>
       <c r="C112">
-        <v>86.84</v>
+        <v>80.73</v>
       </c>
       <c r="D112">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E112">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="F112">
         <v>0.05</v>
       </c>
       <c r="G112">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H112">
         <v>56</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-10 04:32:34</v>
+        <v>2023-10-12 02:58:03</v>
       </c>
       <c r="B113">
-        <v>59.9</v>
+        <v>59.8</v>
       </c>
       <c r="C113">
-        <v>84.05</v>
+        <v>82.36</v>
       </c>
       <c r="D113">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E113">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="F113">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G113">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H113">
         <v>56</v>
       </c>
       <c r="I113">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-10 09:42:51</v>
+        <v>2023-10-12 08:08:02</v>
       </c>
       <c r="B114">
-        <v>59.8</v>
+        <v>59.9</v>
       </c>
       <c r="C114">
-        <v>84.05</v>
+        <v>82.36</v>
       </c>
       <c r="D114">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E114">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F114">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G114">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H114">
         <v>56</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-10 14:53:26</v>
+        <v>2023-10-12 13:18:00</v>
       </c>
       <c r="B115">
-        <v>59.8</v>
+        <v>60.5</v>
       </c>
       <c r="C115">
-        <v>84.05</v>
+        <v>82.36</v>
       </c>
       <c r="D115">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E115">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F115">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G115">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H115">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I115">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-10 20:02:32</v>
+        <v>2023-10-12 18:28:56</v>
       </c>
       <c r="B116">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C116">
-        <v>84.05</v>
+        <v>82.36</v>
       </c>
       <c r="D116">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E116">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="F116">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G116">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H116">
         <v>56</v>
       </c>
       <c r="I116">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-11 01:08:44</v>
+        <v>2023-10-12 23:40:29</v>
       </c>
       <c r="B117">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="C117">
-        <v>84.05</v>
+        <v>82.36</v>
       </c>
       <c r="D117">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E117">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F117">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G117">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I117">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-11 06:17:57</v>
+        <v>2023-10-13 04:49:24</v>
       </c>
       <c r="B118">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C118">
-        <v>80.73</v>
+        <v>79.37</v>
       </c>
       <c r="D118">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E118">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F118">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G118">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I118">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-11 11:30:29</v>
+        <v>2023-10-13 09:58:21</v>
       </c>
       <c r="B119">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C119">
-        <v>80.73</v>
+        <v>79.37</v>
       </c>
       <c r="D119">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E119">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F119">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="G119">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I119">
         <v>14</v>
@@ -3679,306 +3679,306 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-11 16:38:03</v>
+        <v>2023-10-13 15:09:00</v>
       </c>
       <c r="B120">
-        <v>60.5</v>
+        <v>62.7</v>
       </c>
       <c r="C120">
-        <v>80.73</v>
+        <v>79.37</v>
       </c>
       <c r="D120">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E120">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F120">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G120">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I120">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-11 21:48:02</v>
+        <v>2023-10-13 20:18:24</v>
       </c>
       <c r="B121">
-        <v>60.5</v>
+        <v>62</v>
       </c>
       <c r="C121">
-        <v>80.73</v>
+        <v>79.37</v>
       </c>
       <c r="D121">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E121">
+        <v>0.09</v>
+      </c>
+      <c r="F121">
         <v>0.07</v>
       </c>
-      <c r="F121">
-        <v>0.05</v>
-      </c>
       <c r="G121">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I121">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-12 02:58:03</v>
+        <v>2023-10-14 01:28:27</v>
       </c>
       <c r="B122">
-        <v>59.8</v>
+        <v>61.9</v>
       </c>
       <c r="C122">
-        <v>82.36</v>
+        <v>79.37</v>
       </c>
       <c r="D122">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E122">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="F122">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G122">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H122">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I122">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-12 08:08:02</v>
+        <v>2023-10-14 06:38:38</v>
       </c>
       <c r="B123">
-        <v>59.9</v>
+        <v>61.9</v>
       </c>
       <c r="C123">
-        <v>82.36</v>
+        <v>84.31</v>
       </c>
       <c r="D123">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E123">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F123">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G123">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>56</v>
       </c>
       <c r="I123">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-12 13:18:00</v>
+        <v>2023-10-14 11:48:33</v>
       </c>
       <c r="B124">
-        <v>60.5</v>
+        <v>62.8</v>
       </c>
       <c r="C124">
-        <v>82.36</v>
+        <v>84.31</v>
       </c>
       <c r="D124">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="E124">
+        <v>0.08</v>
+      </c>
+      <c r="F124">
         <v>0.06</v>
       </c>
-      <c r="F124">
-        <v>0.05</v>
-      </c>
       <c r="G124">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I124">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-12 18:28:56</v>
+        <v>2023-10-14 16:58:32</v>
       </c>
       <c r="B125">
-        <v>60</v>
+        <v>62.8</v>
       </c>
       <c r="C125">
-        <v>82.36</v>
+        <v>84.31</v>
       </c>
       <c r="D125">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E125">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="F125">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G125">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>56</v>
       </c>
       <c r="I125">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-12 23:40:29</v>
+        <v>2023-10-14 22:08:58</v>
       </c>
       <c r="B126">
-        <v>60.5</v>
+        <v>62.9</v>
       </c>
       <c r="C126">
-        <v>82.36</v>
+        <v>84.31</v>
       </c>
       <c r="D126">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E126">
         <v>0.08</v>
       </c>
       <c r="F126">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G126">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I126">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-13 04:49:24</v>
+        <v>2023-10-15 03:18:39</v>
       </c>
       <c r="B127">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127">
-        <v>79.37</v>
+        <v>80.98</v>
       </c>
       <c r="D127">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="E127">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F127">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G127">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I127">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-13 09:58:21</v>
+        <v>2023-10-15 08:28:38</v>
       </c>
       <c r="B128">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C128">
-        <v>79.37</v>
+        <v>80.98</v>
       </c>
       <c r="D128">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="E128">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F128">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G128">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I128">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-13 15:09:00</v>
+        <v>2023-10-15 13:38:37</v>
       </c>
       <c r="B129">
-        <v>62.7</v>
+        <v>62</v>
       </c>
       <c r="C129">
-        <v>79.37</v>
+        <v>80.98</v>
       </c>
       <c r="D129">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E129">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="F129">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G129">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>58</v>
       </c>
       <c r="I129">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-13 20:18:24</v>
+        <v>2023-10-15 18:48:44</v>
       </c>
       <c r="B130">
-        <v>62</v>
+        <v>62.7</v>
       </c>
       <c r="C130">
-        <v>79.37</v>
+        <v>80.98</v>
       </c>
       <c r="D130">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="E130">
         <v>0.09</v>
@@ -3987,24 +3987,24 @@
         <v>0.07</v>
       </c>
       <c r="G130">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I130">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-14 01:28:27</v>
+        <v>2023-10-15 23:58:43</v>
       </c>
       <c r="B131">
-        <v>61.9</v>
+        <v>62.7</v>
       </c>
       <c r="C131">
-        <v>79.37</v>
+        <v>80.98</v>
       </c>
       <c r="D131">
         <v>360</v>
@@ -4016,68 +4016,68 @@
         <v>0.08</v>
       </c>
       <c r="G131">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I131">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-14 06:38:38</v>
+        <v>2023-10-16 05:09:42</v>
       </c>
       <c r="B132">
-        <v>61.9</v>
+        <v>62.9</v>
       </c>
       <c r="C132">
-        <v>84.31</v>
+        <v>81.7</v>
       </c>
       <c r="D132">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E132">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F132">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="G132">
         <v>34</v>
       </c>
       <c r="H132">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I132">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-14 11:48:33</v>
+        <v>2023-10-16 10:18:48</v>
       </c>
       <c r="B133">
-        <v>62.8</v>
+        <v>62.9</v>
       </c>
       <c r="C133">
-        <v>84.31</v>
+        <v>81.7</v>
       </c>
       <c r="D133">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E133">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F133">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G133">
         <v>35</v>
       </c>
       <c r="H133">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I133">
         <v>13</v>
@@ -4085,86 +4085,86 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-14 16:58:32</v>
+        <v>2023-10-16 15:28:47</v>
       </c>
       <c r="B134">
-        <v>62.8</v>
+        <v>64.2</v>
       </c>
       <c r="C134">
-        <v>84.31</v>
+        <v>81.7</v>
       </c>
       <c r="D134">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E134">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F134">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G134">
         <v>34</v>
       </c>
       <c r="H134">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I134">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-14 22:08:58</v>
+        <v>2023-10-16 20:39:49</v>
       </c>
       <c r="B135">
-        <v>62.9</v>
+        <v>64.8</v>
       </c>
       <c r="C135">
-        <v>84.31</v>
+        <v>81.7</v>
       </c>
       <c r="D135">
         <v>358</v>
       </c>
       <c r="E135">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F135">
         <v>0.07</v>
       </c>
       <c r="G135">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I135">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-15 03:18:39</v>
+        <v>2023-10-17 01:48:53</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>64.5</v>
       </c>
       <c r="C136">
-        <v>80.98</v>
+        <v>81.7</v>
       </c>
       <c r="D136">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E136">
+        <v>0.09</v>
+      </c>
+      <c r="F136">
         <v>0.07</v>
       </c>
-      <c r="F136">
-        <v>0.05</v>
-      </c>
       <c r="G136">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I136">
         <v>12</v>
@@ -4172,248 +4172,248 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-15 08:28:38</v>
+        <v>2023-10-17 07:00:03</v>
       </c>
       <c r="B137">
-        <v>63</v>
+        <v>64.5</v>
       </c>
       <c r="C137">
-        <v>80.98</v>
+        <v>81.7</v>
       </c>
       <c r="D137">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E137">
+        <v>0.09</v>
+      </c>
+      <c r="F137">
         <v>0.07</v>
       </c>
-      <c r="F137">
-        <v>0.05</v>
-      </c>
       <c r="G137">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H137">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-15 13:38:37</v>
+        <v>2023-10-17 12:08:58</v>
       </c>
       <c r="B138">
-        <v>62</v>
+        <v>64.5</v>
       </c>
       <c r="C138">
-        <v>80.98</v>
+        <v>81.7</v>
       </c>
       <c r="D138">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="E138">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="F138">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G138">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H138">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I138">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-15 18:48:44</v>
+        <v>2023-10-17 17:20:19</v>
       </c>
       <c r="B139">
-        <v>62.7</v>
+        <v>64</v>
       </c>
       <c r="C139">
-        <v>80.98</v>
+        <v>81.7</v>
       </c>
       <c r="D139">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E139">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F139">
         <v>0.07</v>
       </c>
       <c r="G139">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H139">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I139">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-15 23:58:43</v>
+        <v>2023-10-17 22:29:24</v>
       </c>
       <c r="B140">
-        <v>62.7</v>
+        <v>63.5</v>
       </c>
       <c r="C140">
-        <v>80.98</v>
+        <v>81.7</v>
       </c>
       <c r="D140">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E140">
         <v>0.1</v>
       </c>
       <c r="F140">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G140">
         <v>36</v>
       </c>
       <c r="H140">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I140">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-16 05:09:42</v>
+        <v>2023-10-18 03:40:23</v>
       </c>
       <c r="B141">
-        <v>62.9</v>
+        <v>63.8</v>
       </c>
       <c r="C141">
-        <v>81.7</v>
+        <v>84.76</v>
       </c>
       <c r="D141">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E141">
         <v>0.1</v>
       </c>
       <c r="F141">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G141">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>58</v>
       </c>
       <c r="I141">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-16 10:18:48</v>
+        <v>2023-10-18 08:51:07</v>
       </c>
       <c r="B142">
         <v>62.9</v>
       </c>
       <c r="C142">
-        <v>81.7</v>
+        <v>84.76</v>
       </c>
       <c r="D142">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E142">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F142">
         <v>0.07</v>
       </c>
       <c r="G142">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I142">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-16 15:28:47</v>
+        <v>2023-10-18 13:59:25</v>
       </c>
       <c r="B143">
-        <v>64.2</v>
+        <v>62</v>
       </c>
       <c r="C143">
-        <v>81.7</v>
+        <v>84.76</v>
       </c>
       <c r="D143">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="E143">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F143">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="G143">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H143">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I143">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-16 20:39:49</v>
+        <v>2023-10-18 19:09:24</v>
       </c>
       <c r="B144">
-        <v>64.8</v>
+        <v>60</v>
       </c>
       <c r="C144">
-        <v>81.7</v>
+        <v>84.76</v>
       </c>
       <c r="D144">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="E144">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F144">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="G144">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I144">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-17 01:48:53</v>
+        <v>2023-10-19 00:19:23</v>
       </c>
       <c r="B145">
-        <v>64.5</v>
+        <v>59.89</v>
       </c>
       <c r="C145">
-        <v>81.7</v>
+        <v>84.76</v>
       </c>
       <c r="D145">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E145">
         <v>0.09</v>
@@ -4422,27 +4422,27 @@
         <v>0.07</v>
       </c>
       <c r="G145">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H145">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I145">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-17 07:00:03</v>
+        <v>2023-10-19 05:29:22</v>
       </c>
       <c r="B146">
-        <v>64.5</v>
+        <v>60</v>
       </c>
       <c r="C146">
-        <v>81.7</v>
+        <v>79.95</v>
       </c>
       <c r="D146">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E146">
         <v>0.09</v>
@@ -4451,13 +4451,13 @@
         <v>0.07</v>
       </c>
       <c r="G146">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H146">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I146">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
